--- a/backstage_admin/app/upload/test.xlsx
+++ b/backstage_admin/app/upload/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B140DE9A-BB6B-42E0-B24F-B4132EC88763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04953E21-6232-4D1E-920D-BC1257C833A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帅哥连敬荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机科学与技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,30 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲师李靖恺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/2016014381.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/2016014376.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据相关规定不予显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/201604386.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,32 +70,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨帆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/201604379.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨成尧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/201604377.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叫兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专业/职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成尧1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成尧3</t>
+  </si>
+  <si>
+    <t>杨成尧4</t>
+  </si>
+  <si>
+    <t>杨成尧5</t>
+  </si>
+  <si>
+    <t>杨成尧6</t>
+  </si>
+  <si>
+    <t>杨成尧7</t>
+  </si>
+  <si>
+    <t>杨成尧8</t>
+  </si>
+  <si>
+    <t>杨成尧2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成尧9</t>
+  </si>
+  <si>
+    <t>杨成尧10</t>
+  </si>
+  <si>
+    <t>杨成尧11</t>
+  </si>
+  <si>
+    <t>杨成尧12</t>
+  </si>
+  <si>
+    <t>杨成尧13</t>
+  </si>
+  <si>
+    <t>杨成尧14</t>
+  </si>
+  <si>
+    <t>杨成尧15</t>
+  </si>
+  <si>
+    <t>杨成尧16</t>
+  </si>
+  <si>
+    <t>计科1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科1606</t>
+  </si>
+  <si>
+    <t>计科1607</t>
+  </si>
+  <si>
+    <t>计科1608</t>
+  </si>
+  <si>
+    <t>计科1609</t>
+  </si>
+  <si>
+    <t>计科1610</t>
+  </si>
+  <si>
+    <t>计科1611</t>
+  </si>
+  <si>
+    <t>计科1612</t>
+  </si>
+  <si>
+    <t>计科1613</t>
+  </si>
+  <si>
+    <t>计科1614</t>
+  </si>
+  <si>
+    <t>计科1615</t>
+  </si>
+  <si>
+    <t>计科1616</t>
+  </si>
+  <si>
+    <t>计科1617</t>
+  </si>
+  <si>
+    <t>计科1618</t>
+  </si>
+  <si>
+    <t>计科1619</t>
+  </si>
+  <si>
+    <t>计科1620</t>
+  </si>
+  <si>
+    <t>/2016043401.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/2016043402.jpg</t>
+  </si>
+  <si>
+    <t>/2016043403.jpg</t>
+  </si>
+  <si>
+    <t>/2016043404.jpg</t>
+  </si>
+  <si>
+    <t>/2016043405.jpg</t>
+  </si>
+  <si>
+    <t>/2016043406.jpg</t>
+  </si>
+  <si>
+    <t>/2016043407.jpg</t>
+  </si>
+  <si>
+    <t>/2016043408.jpg</t>
+  </si>
+  <si>
+    <t>/2016043409.jpg</t>
+  </si>
+  <si>
+    <t>/2016043410.jpg</t>
+  </si>
+  <si>
+    <t>/2016043411.jpg</t>
+  </si>
+  <si>
+    <t>/2016043412.jpg</t>
+  </si>
+  <si>
+    <t>/2016043413.jpg</t>
+  </si>
+  <si>
+    <t>/2016043414.jpg</t>
+  </si>
+  <si>
+    <t>/2016043415.jpg</t>
+  </si>
+  <si>
+    <t>/2016043416.jpg</t>
+  </si>
+  <si>
+    <t>/2016043417.jpg</t>
   </si>
 </sst>
 </file>
@@ -448,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -475,22 +582,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -501,39 +608,39 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2016014381</v>
+        <v>2016014401</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2016014376</v>
+        <v>2016014402</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -541,17 +648,17 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -559,28 +666,28 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2016014386</v>
+        <v>2016014403</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>10000</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -588,28 +695,28 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2016014379</v>
+        <v>2016014404</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -617,28 +724,376 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2016014377</v>
+        <v>2016014405</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2016014406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2016014407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2016014408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2016014409</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2016014410</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2016014411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2016014412</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2016014413</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2016014414</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2016014415</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2016014416</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2016014417</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
